--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T10:36:37+00:00</t>
+    <t>2025-10-30T10:02:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:02:42+00:00</t>
+    <t>2025-10-30T10:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T10:05:12+00:00</t>
+    <t>2025-10-30T11:02:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T11:02:24+00:00</t>
+    <t>2025-10-31T12:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T12:12:50+00:00</t>
+    <t>2025-11-03T16:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://testSK.org/CodeSystem/medication-cs</t>
+    <t>http://tecnomod-um.org/CodeSystem/medication-cs</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T16:51:09+00:00</t>
+    <t>2025-11-06T10:00:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>UMU (http://testSK.org/umu)</t>
+    <t>UMU (http://tecnomod-um.org)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -117,7 +117,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>5</t>
+    <t>4</t>
   </si>
   <si>
     <t>Level</t>
@@ -169,12 +169,6 @@
   </si>
   <si>
     <t>A medication other than those specifically listed was prescribed at discharge</t>
-  </si>
-  <si>
-    <t>other-antiplatelet</t>
-  </si>
-  <si>
-    <t>Other Antiplatelet</t>
   </si>
 </sst>
 </file>
@@ -483,7 +477,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,20 +553,6 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:00:48+00:00</t>
+    <t>2025-11-18T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:01:12+00:00</t>
+    <t>2025-11-18T09:36:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:36:46+00:00</t>
+    <t>2025-11-18T09:43:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:43:16+00:00</t>
+    <t>2025-11-18T10:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:05:08+00:00</t>
+    <t>2025-11-18T10:22:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:22:08+00:00</t>
+    <t>2025-11-18T10:33:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:33:59+00:00</t>
+    <t>2025-11-18T10:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:41:07+00:00</t>
+    <t>2025-11-18T10:43:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:43:22+00:00</t>
+    <t>2025-11-18T10:45:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:45:59+00:00</t>
+    <t>2025-11-18T10:58:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T10:58:35+00:00</t>
+    <t>2025-11-18T11:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:10:00+00:00</t>
+    <t>2025-11-18T11:17:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:17:36+00:00</t>
+    <t>2025-11-18T11:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:44:59+00:00</t>
+    <t>2025-11-18T11:54:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T11:54:03+00:00</t>
+    <t>2025-11-19T08:51:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:51:11+00:00</t>
+    <t>2025-11-19T08:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T08:58:25+00:00</t>
+    <t>2025-11-19T09:26:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-cs.xlsx
+++ b/CodeSystem-medication-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T09:26:24+00:00</t>
+    <t>2025-11-19T10:08:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
